--- a/ExcelFile/Skill.xlsx
+++ b/ExcelFile/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AltarGuard\Assets\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5608FA20-612C-414A-8BB4-3C056F103071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9342BE-9481-41AD-8F9F-5225F513B0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>skillName</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>coolTime</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillHitCount</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1071,15 +1075,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1158,8 +1162,11 @@
       <c r="Z1" t="s">
         <v>28</v>
       </c>
+      <c r="AA1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1238,8 +1245,11 @@
       <c r="Z2">
         <v>2</v>
       </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1318,8 +1328,11 @@
       <c r="Z3">
         <v>3</v>
       </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1397,6 +1410,9 @@
       </c>
       <c r="Z4">
         <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFile/Skill.xlsx
+++ b/ExcelFile/Skill.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AltarGuard\Assets\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9342BE-9481-41AD-8F9F-5225F513B0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE842B6-0F73-46AA-AC02-C88037C76026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Skill" sheetId="1" r:id="rId1"/>
+    <sheet name="ActiveSkill" sheetId="1" r:id="rId1"/>
+    <sheet name="PassiveSkill" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>skillName</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -123,6 +124,22 @@
   </si>
   <si>
     <t>skillHitCount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetStatus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dex</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wiz</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1077,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1420,4 +1437,329 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8363AC2D-7FE9-46FB-BF8F-5F13A32FAA31}">
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>60</v>
+      </c>
+      <c r="L2">
+        <v>70</v>
+      </c>
+      <c r="M2">
+        <v>80</v>
+      </c>
+      <c r="N2">
+        <v>90</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>0.1</v>
+      </c>
+      <c r="Q2">
+        <v>0.2</v>
+      </c>
+      <c r="R2">
+        <v>0.3</v>
+      </c>
+      <c r="S2">
+        <v>0.4</v>
+      </c>
+      <c r="T2">
+        <v>0.5</v>
+      </c>
+      <c r="U2">
+        <v>0.6</v>
+      </c>
+      <c r="V2">
+        <v>0.7</v>
+      </c>
+      <c r="W2">
+        <v>0.8</v>
+      </c>
+      <c r="X2">
+        <v>0.9</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <v>80</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>120</v>
+      </c>
+      <c r="L3">
+        <v>140</v>
+      </c>
+      <c r="M3">
+        <v>160</v>
+      </c>
+      <c r="N3">
+        <v>180</v>
+      </c>
+      <c r="O3">
+        <v>200</v>
+      </c>
+      <c r="P3">
+        <v>0.2</v>
+      </c>
+      <c r="Q3">
+        <v>0.4</v>
+      </c>
+      <c r="R3">
+        <v>0.6</v>
+      </c>
+      <c r="S3">
+        <v>0.8</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1.2</v>
+      </c>
+      <c r="V3">
+        <v>1.4</v>
+      </c>
+      <c r="W3">
+        <v>1.6</v>
+      </c>
+      <c r="X3">
+        <v>1.8</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>90</v>
+      </c>
+      <c r="I4">
+        <v>120</v>
+      </c>
+      <c r="J4">
+        <v>150</v>
+      </c>
+      <c r="K4">
+        <v>180</v>
+      </c>
+      <c r="L4">
+        <v>210</v>
+      </c>
+      <c r="M4">
+        <v>240</v>
+      </c>
+      <c r="N4">
+        <v>270</v>
+      </c>
+      <c r="O4">
+        <v>300</v>
+      </c>
+      <c r="P4">
+        <v>0.3</v>
+      </c>
+      <c r="Q4">
+        <v>0.6</v>
+      </c>
+      <c r="R4">
+        <v>0.9</v>
+      </c>
+      <c r="S4">
+        <v>1.2</v>
+      </c>
+      <c r="T4">
+        <v>1.5</v>
+      </c>
+      <c r="U4">
+        <v>1.8</v>
+      </c>
+      <c r="V4">
+        <v>2.1</v>
+      </c>
+      <c r="W4">
+        <v>2.4</v>
+      </c>
+      <c r="X4">
+        <v>2.7</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>